--- a/prot/356379915/Переход трубопровода через р. Енисей/OCR/1069.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/OCR/1069.xlsx
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="23" t="n">
-        <v>1.056861097201285</v>
+        <v>1.054237535557449</v>
       </c>
       <c r="E28" s="12" t="n"/>
       <c r="F28" s="31" t="n"/>
@@ -3356,43 +3356,43 @@
         <v>0.0125</v>
       </c>
       <c r="O28" s="81" t="n">
-        <v>1.343417499527557</v>
+        <v>1.335701324088172</v>
       </c>
       <c r="P28" s="81" t="n">
-        <v>0.4893395426276059</v>
+        <v>0.4903733792381154</v>
       </c>
       <c r="Q28" s="81" t="n">
-        <v>0.9436349689872268</v>
+        <v>0.9369691659751186</v>
       </c>
       <c r="R28" s="81" t="n">
-        <v>0.4893395426276059</v>
+        <v>0.4903733792381154</v>
       </c>
       <c r="S28" s="81" t="n">
-        <v>0.9436349689872268</v>
+        <v>0.9369691659751186</v>
       </c>
       <c r="T28" s="81" t="n">
-        <v>0.4893395426276059</v>
+        <v>0.4903733792381154</v>
       </c>
       <c r="U28" s="81" t="n">
-        <v>0.9436349689872268</v>
+        <v>0.9369691659751186</v>
       </c>
       <c r="V28" s="81" t="n">
-        <v>0.8469318995405105</v>
+        <v>0.8435864649204357</v>
       </c>
       <c r="W28" s="81" t="n">
-        <v>0.9278142677228791</v>
+        <v>0.9211721035804193</v>
       </c>
       <c r="X28" s="81" t="n">
-        <v>0.8469318995405105</v>
+        <v>0.8435864649204357</v>
       </c>
       <c r="Y28" s="81" t="n">
-        <v>0.9278142677228791</v>
+        <v>0.9211721035804193</v>
       </c>
       <c r="Z28" s="81" t="n">
         <v>0.0125</v>
       </c>
       <c r="AA28" s="81" t="n">
-        <v>1.155168113895916</v>
+        <v>1.150671838529423</v>
       </c>
       <c r="AB28" s="81" t="n"/>
       <c r="AC28" s="81" t="n"/>
@@ -3410,10 +3410,10 @@
         <v>0.025</v>
       </c>
       <c r="C29" s="35" t="n">
-        <v>0.02054233466605493</v>
+        <v>0.02179164973454809</v>
       </c>
       <c r="D29" s="23" t="n">
-        <v>1.042481462935046</v>
+        <v>1.038983380743265</v>
       </c>
       <c r="E29" s="12" t="n"/>
       <c r="F29" s="31" t="n"/>
@@ -3427,34 +3427,34 @@
         <v>6.4</v>
       </c>
       <c r="O29" s="81" t="n">
-        <v>0.7284425207008496</v>
+        <v>0.7217391889733343</v>
       </c>
       <c r="P29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="Q29" s="81" t="n">
-        <v>0.9436349689872268</v>
+        <v>0.9369691659751186</v>
       </c>
       <c r="R29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="S29" s="81" t="n">
-        <v>0.9494489299139564</v>
+        <v>0.9429008337710134</v>
       </c>
       <c r="T29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="U29" s="81" t="n">
-        <v>0.9552628908406858</v>
+        <v>0.9488325015669083</v>
       </c>
       <c r="V29" s="81" t="n">
-        <v>0.8469318995405105</v>
+        <v>0.8435864649204357</v>
       </c>
       <c r="W29" s="81" t="n">
-        <v>0.9278142677228791</v>
+        <v>0.9211721035804193</v>
       </c>
       <c r="X29" s="81" t="n">
-        <v>0.8469318995405105</v>
+        <v>0.8435864649204357</v>
       </c>
       <c r="Y29" s="81" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>4.00625</v>
       </c>
       <c r="AA29" s="81" t="n">
-        <v>0.8223586801111507</v>
+        <v>0.8146424220722649</v>
       </c>
       <c r="AB29" s="81" t="n"/>
       <c r="AC29" s="81" t="n"/>
@@ -3481,10 +3481,10 @@
         <v>0.05</v>
       </c>
       <c r="C30" s="35" t="n">
-        <v>0.0273897795547399</v>
+        <v>0.02905553297939745</v>
       </c>
       <c r="D30" s="23" t="n">
-        <v>1.053874430534618</v>
+        <v>1.049010868890782</v>
       </c>
       <c r="E30" s="12" t="n"/>
       <c r="F30" s="31" t="n"/>
@@ -3498,34 +3498,34 @@
         <v>8</v>
       </c>
       <c r="O30" s="81" t="n">
-        <v>0.7064449958856187</v>
+        <v>0.6997778933632791</v>
       </c>
       <c r="P30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="Q30" s="81" t="n">
-        <v>0.9436349689872268</v>
+        <v>0.9369691659751186</v>
       </c>
       <c r="R30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="S30" s="81" t="n">
-        <v>0.8630513299302437</v>
+        <v>0.8556673236638397</v>
       </c>
       <c r="T30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="U30" s="81" t="n">
-        <v>0.7824676908732606</v>
+        <v>0.7743654813525609</v>
       </c>
       <c r="V30" s="81" t="n">
-        <v>0.8469318995405105</v>
+        <v>0.8435864649204357</v>
       </c>
       <c r="W30" s="81" t="n">
-        <v>0.9278142677228791</v>
+        <v>0.9211721035804193</v>
       </c>
       <c r="X30" s="81" t="n">
-        <v>0.8469318995405105</v>
+        <v>0.8435864649204357</v>
       </c>
       <c r="Y30" s="81" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="AA30" s="81" t="n">
-        <v>0.7824676908732611</v>
+        <v>0.7743654813525622</v>
       </c>
       <c r="AB30" s="81" t="n"/>
       <c r="AC30" s="81" t="n"/>
@@ -3552,10 +3552,10 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="35" t="n">
-        <v>0.02196455688827716</v>
+        <v>0.02428053862343697</v>
       </c>
       <c r="D31" s="23" t="n">
-        <v>1.023875037561828</v>
+        <v>1.018434506221023</v>
       </c>
       <c r="E31" s="12" t="n"/>
       <c r="F31" s="31" t="n"/>
@@ -3595,10 +3595,10 @@
         <v>0.2</v>
       </c>
       <c r="C32" s="35" t="n">
-        <v>0.0362499821134153</v>
+        <v>0.03884071132332259</v>
       </c>
       <c r="D32" s="23" t="n">
-        <v>0.9952439354517318</v>
+        <v>0.9892003689594113</v>
       </c>
       <c r="E32" s="12" t="n"/>
       <c r="F32" s="31" t="n"/>
@@ -3638,10 +3638,10 @@
         <v>0.4</v>
       </c>
       <c r="C33" s="35" t="n">
-        <v>0.04988384026108013</v>
+        <v>0.05276172906694702</v>
       </c>
       <c r="D33" s="23" t="n">
-        <v>0.9552628908406858</v>
+        <v>0.9488325015669083</v>
       </c>
       <c r="E33" s="12" t="n"/>
       <c r="F33" s="31" t="n"/>
@@ -3681,10 +3681,10 @@
         <v>0.8</v>
       </c>
       <c r="C34" s="35" t="n">
-        <v>0.06892243293300679</v>
+        <v>0.07198452306337699</v>
       </c>
       <c r="D34" s="23" t="n">
-        <v>0.9074795266984279</v>
+        <v>0.9008109460567583</v>
       </c>
       <c r="G34" s="31" t="n"/>
       <c r="H34" s="31" t="n"/>
@@ -3722,10 +3722,10 @@
         <v>1.6</v>
       </c>
       <c r="C35" s="35" t="n">
-        <v>0.09167641585789151</v>
+        <v>0.09485193044916276</v>
       </c>
       <c r="D35" s="23" t="n">
-        <v>0.8527025233146799</v>
+        <v>0.8459289776466267</v>
       </c>
       <c r="E35" s="12" t="n"/>
       <c r="F35" s="73" t="inlineStr">
@@ -3738,7 +3738,7 @@
       <c r="I35" s="56" t="n"/>
       <c r="J35" s="57" t="n"/>
       <c r="K35" s="46" t="n">
-        <v>0.8469318995405105</v>
+        <v>0.8435864649204357</v>
       </c>
       <c r="L35" s="13" t="n"/>
       <c r="N35" s="81" t="n"/>
@@ -3771,10 +3771,10 @@
         <v>3.2</v>
       </c>
       <c r="C36" s="35" t="n">
-        <v>0.1177607031834858</v>
+        <v>0.120986201120654</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>0.7925197854571246</v>
+        <v>0.7857442520828275</v>
       </c>
       <c r="E36" s="12" t="n"/>
       <c r="F36" s="67" t="inlineStr">
@@ -3820,10 +3820,10 @@
         <v>6.4</v>
       </c>
       <c r="C37" s="35" t="n">
-        <v>0.1464191497823216</v>
+        <v>0.1496455942462727</v>
       </c>
       <c r="D37" s="23" t="n">
-        <v>0.7284425207008496</v>
+        <v>0.7217391889733343</v>
       </c>
       <c r="E37" s="12" t="n"/>
       <c r="F37" s="67" t="inlineStr">
@@ -3836,7 +3836,7 @@
       <c r="I37" s="49" t="n"/>
       <c r="J37" s="50" t="n"/>
       <c r="K37" s="45" t="n">
-        <v>16.93863799081021</v>
+        <v>16.87172929840871</v>
       </c>
       <c r="L37" s="13" t="n"/>
       <c r="N37" s="81" t="n"/>
@@ -3869,10 +3869,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="36" t="n">
-        <v>0.1769321329995955</v>
+        <v>0.1801241957269837</v>
       </c>
       <c r="D38" s="25" t="n">
-        <v>0.7064449958856187</v>
+        <v>0.6997778933632791</v>
       </c>
       <c r="E38" s="12" t="n"/>
       <c r="F38" s="68" t="inlineStr">
@@ -3885,7 +3885,7 @@
       <c r="I38" s="69" t="n"/>
       <c r="J38" s="70" t="n"/>
       <c r="K38" s="47" t="n">
-        <v>0.7969318995405105</v>
+        <v>0.7935864649204356</v>
       </c>
       <c r="L38" s="13" t="n"/>
       <c r="N38" s="81" t="n"/>
@@ -4191,7 +4191,7 @@
         <v>0.75</v>
       </c>
       <c r="O45" s="91" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="P45" s="88" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0.75</v>
       </c>
       <c r="S45" s="88" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="T45" s="88" t="n"/>
       <c r="U45" s="81" t="n"/>
@@ -4229,10 +4229,10 @@
         <v>0.0125</v>
       </c>
       <c r="C46" s="35" t="n">
-        <v>0.1283895916628433</v>
+        <v>0.1361978108409255</v>
       </c>
       <c r="D46" s="37" t="n">
-        <v>0.1283895916628433</v>
+        <v>0.1361978108409255</v>
       </c>
       <c r="E46" s="31" t="n"/>
       <c r="F46" s="31" t="n"/>
@@ -4252,13 +4252,13 @@
         <v>0.75</v>
       </c>
       <c r="Q46" s="87" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="R46" s="88" t="n">
         <v>0.75</v>
       </c>
       <c r="S46" s="88" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="T46" s="88" t="n"/>
       <c r="U46" s="81" t="n"/>
@@ -4284,10 +4284,10 @@
         <v>0.025</v>
       </c>
       <c r="C47" s="35" t="n">
-        <v>0.1283895916628433</v>
+        <v>0.1361978108409255</v>
       </c>
       <c r="D47" s="37" t="n">
-        <v>0.2567791833256866</v>
+        <v>0.2723956216818511</v>
       </c>
       <c r="E47" s="31" t="n"/>
       <c r="F47" s="31" t="n"/>
@@ -4327,10 +4327,10 @@
         <v>0.05</v>
       </c>
       <c r="C48" s="35" t="n">
-        <v>-0.203445849992353</v>
+        <v>-0.1790622883485178</v>
       </c>
       <c r="D48" s="37" t="n">
-        <v>0.05333333333333362</v>
+        <v>0.0933333333333333</v>
       </c>
       <c r="E48" s="31" t="n"/>
       <c r="F48" s="31" t="n"/>
@@ -4370,10 +4370,10 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="35" t="n">
-        <v>1.071406891885361</v>
+        <v>1.092012952491421</v>
       </c>
       <c r="D49" s="37" t="n">
-        <v>1.124740225218694</v>
+        <v>1.185346285824755</v>
       </c>
       <c r="E49" s="31" t="n"/>
       <c r="F49" s="31" t="n"/>
@@ -4413,10 +4413,10 @@
         <v>0.2</v>
       </c>
       <c r="C50" s="35" t="n">
-        <v>2.045078722149725</v>
+        <v>2.088152661543665</v>
       </c>
       <c r="D50" s="37" t="n">
-        <v>3.16981894736842</v>
+        <v>3.27349894736842</v>
       </c>
       <c r="E50" s="31" t="n"/>
       <c r="F50" s="31" t="n"/>
@@ -4456,10 +4456,10 @@
         <v>0.4</v>
       </c>
       <c r="C51" s="35" t="n">
-        <v>5.711577801577999</v>
+        <v>5.766838198928992</v>
       </c>
       <c r="D51" s="37" t="n">
-        <v>8.881396748946418</v>
+        <v>9.040337146297412</v>
       </c>
       <c r="E51" s="31" t="n"/>
       <c r="F51" s="31" t="n"/>
@@ -4499,10 +4499,10 @@
         <v>0.8</v>
       </c>
       <c r="C52" s="35" t="n">
-        <v>13.65238975493083</v>
+        <v>13.72044443147147</v>
       </c>
       <c r="D52" s="37" t="n">
-        <v>22.53378650387725</v>
+        <v>22.76078157776888</v>
       </c>
       <c r="E52" s="31" t="n"/>
       <c r="F52" s="73" t="inlineStr">
@@ -4548,10 +4548,10 @@
         <v>1.6</v>
       </c>
       <c r="C53" s="35" t="n">
-        <v>31.30114479071317</v>
+        <v>31.36112480578951</v>
       </c>
       <c r="D53" s="37" t="n">
-        <v>53.83493129459043</v>
+        <v>54.12190638355839</v>
       </c>
       <c r="E53" s="31" t="n"/>
       <c r="F53" s="67" t="inlineStr">
@@ -4597,10 +4597,10 @@
         <v>3.2</v>
       </c>
       <c r="C54" s="35" t="n">
-        <v>68.78027183720599</v>
+        <v>68.78254350148481</v>
       </c>
       <c r="D54" s="37" t="n">
-        <v>122.6152031317964</v>
+        <v>122.9044498850432</v>
       </c>
       <c r="E54" s="31" t="n"/>
       <c r="F54" s="67" t="inlineStr">
@@ -4646,10 +4646,10 @@
         <v>6.4</v>
       </c>
       <c r="C55" s="36" t="n">
-        <v>146.4623194429147</v>
+        <v>146.2972871074127</v>
       </c>
       <c r="D55" s="38" t="n">
-        <v>269.0775225747111</v>
+        <v>269.2017369924559</v>
       </c>
       <c r="E55" s="31" t="n"/>
       <c r="F55" s="68" t="inlineStr">
@@ -4695,7 +4695,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="31" t="n">
-        <v>75.4200850807913</v>
+        <v>75.29587066304646</v>
       </c>
       <c r="D56" s="31" t="n">
         <v>344.4976076555024</v>
